--- a/biology/Zoologie/Hylodes_nasus/Hylodes_nasus.xlsx
+++ b/biology/Zoologie/Hylodes_nasus/Hylodes_nasus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes nasus est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes nasus est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Brésil. Elle se rencontre entre le niveau de la mer et 900 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Brésil. Elle se rencontre entre le niveau de la mer et 900 m d'altitude, :
 dans l'État de Rio de Janeiro ;
 dans l'est de l'État de São Paulo ;
 dans l'est de l'État de Paraná ;
@@ -545,7 +559,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Girard, 1853 : Descriptions of new species of reptiles, collected by the U.S. Exploring Expedition under the command of Capt. Charles Wilkes, U.S.N. Second part — Including the species of Batrachians, exotic to North America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 420-424 (texte intégral).
 Lichtenstein, 1823 : Verzeichniss der Doubletten des Zoologischen Museums der Königlichen Friedrich-Wilhelm-Universität zu Berlin nebst Beschreibung vieler bisher unbekannter Arten von Säugethieren, Vögeln, Amphibien und Fischen. Königlich Preussische Akademie der Wissenschaften, Berlin, p. 1-118 (texte intégral).
